--- a/biology/Zoologie/Jordanella/Jordanella.xlsx
+++ b/biology/Zoologie/Jordanella/Jordanella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jordanella floridae est une espèce de poissons de la famille des Cyprinodontidae. C'est la seule espèce de son genre Jordanella (monotypique). Son nom de genre commémore l'ichtyologiste américain David Starr Jordan (1851-1931). Elle est originaire de Floride, elle fréquente les étangs et les lacs ainsi que les cours d'eau à faible débit. C'est un hôte fréquent des aquariums en Amérique du Nord. 
 </t>
@@ -511,7 +523,9 @@
           <t>Taille</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jordanella floridae mesure environ 6 cm de long.
 </t>
@@ -542,7 +556,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Facile à élever, elle est parfois utilisée comme animal de laboratoire notamment pour des études écotoxicologiques ou toxicologiques (voir illustration ci-contre, à titre d'exemple)
 </t>
